--- a/output/1Y_P49_1VAL-D.xlsx
+++ b/output/1Y_P49_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>22.3911</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>446.606</v>
       </c>
-      <c r="G2" s="1">
-        <v>446.606</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1937</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>22.3911</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1937</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>23.2533</v>
       </c>
+      <c r="E3" s="1">
+        <v>446.606</v>
+      </c>
       <c r="F3" s="1">
         <v>430.0465</v>
       </c>
-      <c r="G3" s="1">
-        <v>876.6525</v>
-      </c>
       <c r="H3" s="1">
-        <v>20279.3394</v>
+        <v>10331.203</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>22.8141</v>
+        <v>10331.203</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>22.3911</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20279.3394</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0166</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>22.965</v>
       </c>
+      <c r="E4" s="1">
+        <v>876.6525</v>
+      </c>
       <c r="F4" s="1">
         <v>435.4452</v>
       </c>
-      <c r="G4" s="1">
-        <v>1312.0977</v>
-      </c>
       <c r="H4" s="1">
-        <v>29976.0539</v>
+        <v>20027.9155</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>22.8642</v>
+        <v>20027.9155</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>22.8141</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29976.0539</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.01</v>
+        <v>-0.0149</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>19.9668</v>
       </c>
+      <c r="E5" s="1">
+        <v>1312.0977</v>
+      </c>
       <c r="F5" s="1">
         <v>500.8314</v>
       </c>
-      <c r="G5" s="1">
-        <v>1812.9291</v>
-      </c>
       <c r="H5" s="1">
-        <v>36010.7552</v>
+        <v>26062.5912</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>22.0637</v>
+        <v>26062.5912</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>22.8642</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>36010.7552</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0992</v>
+        <v>-0.1321</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>18.2441</v>
       </c>
+      <c r="E6" s="1">
+        <v>1812.9291</v>
+      </c>
       <c r="F6" s="1">
         <v>548.1224</v>
       </c>
-      <c r="G6" s="1">
-        <v>2361.0515</v>
-      </c>
       <c r="H6" s="1">
-        <v>42851.9048</v>
+        <v>32903.7572</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>21.177</v>
+        <v>32903.7572</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>22.0637</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>42851.9048</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0687</v>
+        <v>-0.0876</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>14.3227</v>
       </c>
+      <c r="E7" s="1">
+        <v>2361.0515</v>
+      </c>
       <c r="F7" s="1">
         <v>698.1924</v>
       </c>
-      <c r="G7" s="1">
-        <v>3059.2439</v>
-      </c>
       <c r="H7" s="1">
-        <v>43589.331</v>
+        <v>33641.2067</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>19.6127</v>
+        <v>33641.2067</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>21.177</v>
+      </c>
+      <c r="M7" s="1">
         <v>2</v>
       </c>
-      <c r="L7" s="1">
-        <v>4249.8928</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-5750.1072</v>
+        <v>3263.2724</v>
       </c>
       <c r="O7" s="1">
-        <v>4249.8928</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>47839.2238</v>
+        <v>-6736.7276</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0948</v>
+        <v>-0.2159</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>15.7433</v>
       </c>
+      <c r="E8" s="1">
+        <v>3059.2439</v>
+      </c>
       <c r="F8" s="1">
-        <v>680.1824</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3739.4263</v>
+        <v>669.7375</v>
       </c>
       <c r="H8" s="1">
-        <v>58565.773</v>
+        <v>47912.9604</v>
       </c>
       <c r="I8" s="1">
-        <v>70708.3155</v>
+        <v>3263.2724</v>
       </c>
       <c r="J8" s="1">
-        <v>18.9089</v>
+        <v>51176.2329</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60543.8787</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>19.7905</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10708.3155</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>3541.5773</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>62107.3503</v>
+        <v>-10543.8787</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0738</v>
+        <v>0.1727</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>16.1934</v>
       </c>
+      <c r="E9" s="1">
+        <v>3728.9814</v>
+      </c>
       <c r="F9" s="1">
-        <v>661.2765000000001</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4400.7028</v>
+        <v>651.122</v>
       </c>
       <c r="H9" s="1">
-        <v>70892.68240000001</v>
+        <v>60071.6536</v>
       </c>
       <c r="I9" s="1">
-        <v>81416.6309</v>
+        <v>2719.3937</v>
       </c>
       <c r="J9" s="1">
-        <v>18.5008</v>
+        <v>62791.0473</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71087.75750000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>19.0636</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10708.3155</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>2833.2618</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>73725.9442</v>
+        <v>-10543.8787</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0224</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>15.2218</v>
       </c>
+      <c r="E10" s="1">
+        <v>4380.1034</v>
+      </c>
       <c r="F10" s="1">
-        <v>703.4855</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5104.1883</v>
+        <v>692.6828</v>
       </c>
       <c r="H10" s="1">
-        <v>77292.2135</v>
+        <v>66327.4681</v>
       </c>
       <c r="I10" s="1">
-        <v>92124.9464</v>
+        <v>2175.515</v>
       </c>
       <c r="J10" s="1">
-        <v>18.0489</v>
+        <v>68502.9831</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81631.63619999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.6369</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10708.3155</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>2124.9464</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>79417.1599</v>
+        <v>-10543.8787</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0515</v>
+        <v>-0.0589</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>14.0702</v>
       </c>
+      <c r="E11" s="1">
+        <v>5072.7862</v>
+      </c>
       <c r="F11" s="1">
-        <v>761.0635</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5865.2518</v>
+        <v>749.3766000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>82097.6893</v>
+        <v>71005.3103</v>
       </c>
       <c r="I11" s="1">
-        <v>102833.2618</v>
+        <v>1631.6362</v>
       </c>
       <c r="J11" s="1">
-        <v>17.5326</v>
+        <v>72636.94650000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92175.515</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.1706</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10708.3155</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1416.6309</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>83514.3202</v>
+        <v>-10543.8787</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.066</v>
+        <v>-0.0747</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>13.8476</v>
       </c>
+      <c r="E12" s="1">
+        <v>5822.1628</v>
+      </c>
       <c r="F12" s="1">
-        <v>773.2976</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6638.5494</v>
+        <v>761.4228000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>91451.3287</v>
+        <v>80204.9504</v>
       </c>
       <c r="I12" s="1">
-        <v>113541.5773</v>
+        <v>1087.7575</v>
       </c>
       <c r="J12" s="1">
-        <v>17.1034</v>
+        <v>81292.70789999999</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102719.3937</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6428</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10708.3155</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>708.3155</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>92159.6442</v>
+        <v>-10543.8787</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0145</v>
+        <v>-0.0163</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>14.6185</v>
       </c>
+      <c r="E13" s="1">
+        <v>6583.5856</v>
+      </c>
       <c r="F13" s="1">
-        <v>732.5181</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7371.0675</v>
+        <v>721.2695</v>
       </c>
       <c r="H13" s="1">
-        <v>107195.2229</v>
+        <v>95743.11079999999</v>
       </c>
       <c r="I13" s="1">
-        <v>124249.8928</v>
+        <v>543.8787</v>
       </c>
       <c r="J13" s="1">
-        <v>16.8564</v>
+        <v>96286.9896</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113263.2724</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.2039</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10708.3155</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>107195.2229</v>
+        <v>-10543.8787</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0493</v>
+        <v>0.0547</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>15.2363</v>
       </c>
+      <c r="E14" s="1">
+        <v>7304.8552</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7371.0675</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6583.5856</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>110721.8813</v>
       </c>
       <c r="I14" s="1">
-        <v>124249.8928</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.8564</v>
+        <v>110721.8813</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113263.2724</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.5052</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>111725.4809</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>111725.4809</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111725.4809</v>
+        <v>99789.3826</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0467</v>
+        <v>0.0417</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>22.3911</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>446.606</v>
       </c>
       <c r="G2" s="1">
-        <v>446.606</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1937</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>22.3911</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1937</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>23.2533</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>446.606</v>
       </c>
       <c r="F3" s="1">
         <v>417.971</v>
       </c>
       <c r="G3" s="1">
-        <v>864.577</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10331.203</v>
       </c>
       <c r="I3" s="1">
-        <v>19719.2043</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>22.8079</v>
+        <v>10331.203</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9719.204299999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>21.7624</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9719.204299999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>280.7957</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20280.7957</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0167</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>22.965</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>864.577</v>
       </c>
       <c r="F4" s="1">
         <v>448.5689</v>
       </c>
       <c r="G4" s="1">
-        <v>1313.1459</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>19752.0393</v>
       </c>
       <c r="I4" s="1">
-        <v>30020.5895</v>
+        <v>280.7957</v>
       </c>
       <c r="J4" s="1">
-        <v>22.8616</v>
+        <v>20032.835</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20020.5895</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>23.1565</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10301.3852</v>
       </c>
-      <c r="O4" s="1">
-        <v>-20.5895</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29979.4105</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.01</v>
+        <v>-0.0147</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>19.9668</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1313.1459</v>
       </c>
       <c r="F5" s="1">
         <v>499.8002</v>
       </c>
       <c r="G5" s="1">
-        <v>1812.9461</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>36011.0922</v>
+        <v>26083.411</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-20.5895</v>
       </c>
       <c r="J5" s="1">
-        <v>22.0635</v>
+        <v>26062.8215</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>22.8459</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9979.4105</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>36011.0922</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0993</v>
+        <v>-0.1322</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>18.2441</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>1812.9461</v>
       </c>
       <c r="F6" s="1">
         <v>548.1224</v>
       </c>
       <c r="G6" s="1">
-        <v>2361.0685</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>42852.2128</v>
+        <v>32904.0652</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>21.1769</v>
+        <v>32904.0652</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>22.0635</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>42852.2128</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0687</v>
+        <v>-0.0876</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>14.3227</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2361.0685</v>
       </c>
       <c r="F7" s="1">
         <v>698.1924</v>
       </c>
       <c r="G7" s="1">
-        <v>3059.2609</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>43589.5728</v>
+        <v>33641.4485</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>19.6126</v>
+        <v>33641.4485</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>21.1769</v>
+      </c>
+      <c r="M7" s="1">
         <v>2</v>
       </c>
-      <c r="L7" s="1">
-        <v>4249.9233</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-5750.0767</v>
+        <v>3263.303</v>
       </c>
       <c r="O7" s="1">
-        <v>4249.9233</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>47839.4961</v>
+        <v>-6736.697</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0948</v>
+        <v>-0.2159</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>15.7433</v>
       </c>
       <c r="E8" s="1">
+        <v>3059.2609</v>
+      </c>
+      <c r="F8" s="1">
+        <v>842.4729</v>
+      </c>
+      <c r="G8" s="1">
         <v>70000</v>
       </c>
-      <c r="F8" s="1">
-        <v>905.1421</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3964.403</v>
-      </c>
       <c r="H8" s="1">
-        <v>62089.2899</v>
+        <v>47913.2262</v>
       </c>
       <c r="I8" s="1">
-        <v>74249.92329999999</v>
+        <v>3263.303</v>
       </c>
       <c r="J8" s="1">
-        <v>18.7292</v>
+        <v>51176.5291</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>63263.303</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>20.6793</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-14249.9233</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>62089.2899</v>
+        <v>-13263.303</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0735</v>
+        <v>0.1727</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>16.1934</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3901.7337</v>
       </c>
       <c r="F9" s="1">
         <v>617.5355</v>
       </c>
       <c r="G9" s="1">
-        <v>4581.9385</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>73812.2801</v>
+        <v>62854.5896</v>
       </c>
       <c r="I9" s="1">
-        <v>84249.92329999999</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>18.3874</v>
+        <v>62854.5896</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>73263.303</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.7771</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>73812.2801</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0239</v>
+        <v>0.0274</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>15.2218</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4519.2693</v>
       </c>
       <c r="F10" s="1">
         <v>656.9525</v>
       </c>
       <c r="G10" s="1">
-        <v>5238.891</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>79332.003</v>
+        <v>68434.8428</v>
       </c>
       <c r="I10" s="1">
-        <v>94249.92329999999</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.9904</v>
+        <v>68434.8428</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>83263.303</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.4241</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>79332.003</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0535</v>
+        <v>-0.0607</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>14.0702</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5176.2218</v>
       </c>
       <c r="F11" s="1">
         <v>710.722</v>
       </c>
       <c r="G11" s="1">
-        <v>5949.613</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>83278.5178</v>
+        <v>72453.1295</v>
       </c>
       <c r="I11" s="1">
-        <v>104249.9233</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.5221</v>
+        <v>72453.1295</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>93263.303</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.0176</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>83278.5178</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0678</v>
+        <v>-0.07630000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>13.8476</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5886.9438</v>
       </c>
       <c r="F12" s="1">
         <v>722.1468</v>
       </c>
       <c r="G12" s="1">
-        <v>6671.7598</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>91908.8284</v>
+        <v>81097.3599</v>
       </c>
       <c r="I12" s="1">
-        <v>114249.9233</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.1244</v>
+        <v>81097.3599</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103263.303</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.5411</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>91908.8284</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0147</v>
+        <v>-0.0164</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>14.6185</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6609.0906</v>
       </c>
       <c r="F13" s="1">
         <v>684.0647</v>
       </c>
       <c r="G13" s="1">
-        <v>7355.8245</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>106973.5488</v>
+        <v>96114.02129999999</v>
       </c>
       <c r="I13" s="1">
-        <v>124249.9233</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.8914</v>
+        <v>96114.02129999999</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113263.303</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.1375</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>106973.5488</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0497</v>
+        <v>0.0551</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>15.2363</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7293.1553</v>
       </c>
       <c r="F14" s="1">
-        <v>-7355.8245</v>
+        <v>-7293.1553</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>110544.5424</v>
       </c>
       <c r="I14" s="1">
-        <v>124249.9233</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.8914</v>
+        <v>110544.5424</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113263.303</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.5301</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>111494.4386</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>111494.4386</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111494.4386</v>
+        <v>110544.5424</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0468</v>
+        <v>0.0418</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>22.3911</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>446.606</v>
       </c>
       <c r="G2" s="1">
-        <v>446.606</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1937</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>22.3911</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1937</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>23.2533</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>446.606</v>
       </c>
       <c r="F3" s="1">
         <v>420.1324</v>
       </c>
       <c r="G3" s="1">
-        <v>866.7384</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10331.203</v>
       </c>
       <c r="I3" s="1">
-        <v>19769.4649</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>22.809</v>
+        <v>10331.203</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9769.464900000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>21.8749</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9769.464900000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>230.5351</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20280.5351</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0167</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>22.965</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>866.7384</v>
       </c>
       <c r="F4" s="1">
         <v>445.4838</v>
       </c>
       <c r="G4" s="1">
-        <v>1312.2222</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29978.8974</v>
+        <v>19801.4194</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>230.5351</v>
       </c>
       <c r="J4" s="1">
-        <v>22.862</v>
+        <v>20031.9545</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>23.075</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10230.5351</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29978.8974</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.01</v>
+        <v>-0.0147</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>19.9668</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1312.2222</v>
       </c>
       <c r="F5" s="1">
         <v>500.8314</v>
       </c>
       <c r="G5" s="1">
-        <v>1813.0536</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>36013.2273</v>
+        <v>26065.0634</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>22.0622</v>
+        <v>26065.0634</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>22.862</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>36013.2273</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0992</v>
+        <v>-0.1321</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>18.2441</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>1813.0536</v>
       </c>
       <c r="F6" s="1">
         <v>548.1224</v>
       </c>
       <c r="G6" s="1">
-        <v>2361.176</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>42854.1637</v>
+        <v>32906.0161</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>21.1759</v>
+        <v>32906.0161</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>22.0622</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>42854.1637</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0687</v>
+        <v>-0.0876</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>14.3227</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2361.176</v>
       </c>
       <c r="F7" s="1">
         <v>698.1924</v>
       </c>
       <c r="G7" s="1">
-        <v>3059.3684</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>43591.1044</v>
+        <v>33642.9801</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>19.6119</v>
+        <v>33642.9801</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>21.1759</v>
+      </c>
+      <c r="M7" s="1">
         <v>2</v>
       </c>
-      <c r="L7" s="1">
-        <v>4250.1168</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-5749.8832</v>
+        <v>3263.4965</v>
       </c>
       <c r="O7" s="1">
-        <v>4250.1168</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>47841.2212</v>
+        <v>-6736.5035</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0948</v>
+        <v>-0.2159</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>15.7433</v>
       </c>
       <c r="E8" s="1">
+        <v>3059.3684</v>
+      </c>
+      <c r="F8" s="1">
+        <v>842.4851</v>
+      </c>
+      <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
-      <c r="F8" s="1">
-        <v>905.1544</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3964.5227</v>
-      </c>
       <c r="H8" s="1">
-        <v>62091.1659</v>
+        <v>47914.9097</v>
       </c>
       <c r="I8" s="1">
-        <v>74250.1168</v>
+        <v>3263.4965</v>
       </c>
       <c r="J8" s="1">
-        <v>18.7286</v>
+        <v>51178.4061</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>63263.4965</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>20.6786</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-14250.1168</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>62091.1659</v>
+        <v>-13263.4965</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0735</v>
+        <v>0.1727</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>16.1934</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3901.8535</v>
       </c>
       <c r="F9" s="1">
         <v>617.5355</v>
       </c>
       <c r="G9" s="1">
-        <v>4582.0583</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>73814.20970000001</v>
+        <v>62856.5192</v>
       </c>
       <c r="I9" s="1">
-        <v>84250.1168</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>18.387</v>
+        <v>62856.5192</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>73263.49649999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.7766</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>73814.20970000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0239</v>
+        <v>0.0274</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>15.2218</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4519.3891</v>
       </c>
       <c r="F10" s="1">
         <v>656.9525</v>
       </c>
       <c r="G10" s="1">
-        <v>5239.0108</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>79333.8168</v>
+        <v>68436.65670000001</v>
       </c>
       <c r="I10" s="1">
-        <v>94250.1168</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.9901</v>
+        <v>68436.65670000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>83263.49649999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.4236</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>79333.8168</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0535</v>
+        <v>-0.0607</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>14.0702</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5176.3416</v>
       </c>
       <c r="F11" s="1">
         <v>710.722</v>
       </c>
       <c r="G11" s="1">
-        <v>5949.7328</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>83280.19439999999</v>
+        <v>72454.80620000001</v>
       </c>
       <c r="I11" s="1">
-        <v>104250.1168</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.5218</v>
+        <v>72454.80620000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>93263.49649999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.0173</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>83280.19439999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0678</v>
+        <v>-0.07630000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>13.8476</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5887.0635</v>
       </c>
       <c r="F12" s="1">
         <v>722.1468</v>
       </c>
       <c r="G12" s="1">
-        <v>6671.8796</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>91910.4785</v>
+        <v>81099.00999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>114250.1168</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.1241</v>
+        <v>81099.00999999999</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103263.4965</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.5407</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>91910.4785</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0147</v>
+        <v>-0.0164</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>14.6185</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6609.2103</v>
       </c>
       <c r="F13" s="1">
         <v>684.0647</v>
       </c>
       <c r="G13" s="1">
-        <v>7355.9443</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>106975.2908</v>
+        <v>96115.7632</v>
       </c>
       <c r="I13" s="1">
-        <v>124250.1168</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.8911</v>
+        <v>96115.7632</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113263.4965</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.1372</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>106975.2908</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0497</v>
+        <v>0.0551</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>15.2363</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7293.2751</v>
       </c>
       <c r="F14" s="1">
-        <v>-7355.9443</v>
+        <v>-7293.2751</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>110546.358</v>
       </c>
       <c r="I14" s="1">
-        <v>124250.1168</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.8911</v>
+        <v>110546.358</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113263.4965</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.5299</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>111496.2542</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>111496.2542</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111496.2542</v>
+        <v>110546.358</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0468</v>
+        <v>0.0418</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>22.3911</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>446.606</v>
       </c>
       <c r="G2" s="1">
-        <v>446.606</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1937</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>22.3911</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1937</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>23.2533</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>446.606</v>
       </c>
       <c r="F3" s="1">
         <v>422.2939</v>
       </c>
       <c r="G3" s="1">
-        <v>868.8999</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10331.203</v>
       </c>
       <c r="I3" s="1">
-        <v>19819.7256</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>22.8101</v>
+        <v>10331.203</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9819.7256</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>21.9874</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9819.7256</v>
       </c>
-      <c r="O3" s="1">
-        <v>180.2744</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20280.2744</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0166</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>22.965</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>868.8999</v>
       </c>
       <c r="F4" s="1">
         <v>443.2952</v>
       </c>
       <c r="G4" s="1">
-        <v>1312.1951</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29978.2774</v>
+        <v>19850.7995</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>180.2744</v>
       </c>
       <c r="J4" s="1">
-        <v>22.8625</v>
+        <v>20031.0739</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>23.0176</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10180.2744</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29978.2774</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.01</v>
+        <v>-0.0148</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>19.9668</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1312.1951</v>
       </c>
       <c r="F5" s="1">
         <v>500.8314</v>
       </c>
       <c r="G5" s="1">
-        <v>1813.0265</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>36012.6884</v>
+        <v>26064.5244</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>22.0626</v>
+        <v>26064.5244</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>22.8625</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>36012.6884</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0992</v>
+        <v>-0.1321</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>18.2441</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>1813.0265</v>
       </c>
       <c r="F6" s="1">
         <v>548.1224</v>
       </c>
       <c r="G6" s="1">
-        <v>2361.1489</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>42853.6713</v>
+        <v>32905.5236</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>21.1761</v>
+        <v>32905.5236</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>22.0626</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>42853.6713</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0687</v>
+        <v>-0.0876</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>14.3227</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2361.1489</v>
       </c>
       <c r="F7" s="1">
         <v>698.1924</v>
       </c>
       <c r="G7" s="1">
-        <v>3059.3412</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>43590.7177</v>
+        <v>33642.5934</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>19.6121</v>
+        <v>33642.5934</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>21.1761</v>
+      </c>
+      <c r="M7" s="1">
         <v>2</v>
       </c>
-      <c r="L7" s="1">
-        <v>4250.0679</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-5749.9321</v>
+        <v>3263.4476</v>
       </c>
       <c r="O7" s="1">
-        <v>4250.0679</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>47840.7857</v>
+        <v>-6736.5524</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0948</v>
+        <v>-0.2159</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>15.7433</v>
       </c>
       <c r="E8" s="1">
+        <v>3059.3412</v>
+      </c>
+      <c r="F8" s="1">
+        <v>842.482</v>
+      </c>
+      <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
-      <c r="F8" s="1">
-        <v>905.1513</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3964.4925</v>
-      </c>
       <c r="H8" s="1">
-        <v>62090.6923</v>
+        <v>47914.4847</v>
       </c>
       <c r="I8" s="1">
-        <v>74250.06789999999</v>
+        <v>3263.4476</v>
       </c>
       <c r="J8" s="1">
-        <v>18.7288</v>
+        <v>51177.9323</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>63263.4476</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>20.6788</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-14250.0679</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>62090.6923</v>
+        <v>-13263.4476</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0735</v>
+        <v>0.1727</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>16.1934</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3901.8233</v>
       </c>
       <c r="F9" s="1">
         <v>617.5355</v>
       </c>
       <c r="G9" s="1">
-        <v>4582.028</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>73813.72259999999</v>
+        <v>62856.0321</v>
       </c>
       <c r="I9" s="1">
-        <v>84250.06789999999</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>18.3871</v>
+        <v>62856.0321</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>73263.4476</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.7767</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>73813.72259999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0239</v>
+        <v>0.0274</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>15.2218</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4519.3588</v>
       </c>
       <c r="F10" s="1">
         <v>656.9525</v>
       </c>
       <c r="G10" s="1">
-        <v>5238.9806</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>79333.359</v>
+        <v>68436.1988</v>
       </c>
       <c r="I10" s="1">
-        <v>94250.06789999999</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.9902</v>
+        <v>68436.1988</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>83263.4476</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.4237</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>79333.359</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0535</v>
+        <v>-0.0607</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>14.0702</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5176.3114</v>
       </c>
       <c r="F11" s="1">
         <v>710.722</v>
       </c>
       <c r="G11" s="1">
-        <v>5949.7025</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>83279.7712</v>
+        <v>72454.3829</v>
       </c>
       <c r="I11" s="1">
-        <v>104250.0679</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.5219</v>
+        <v>72454.3829</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>93263.4476</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.0174</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>83279.7712</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0678</v>
+        <v>-0.07630000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>13.8476</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5887.0333</v>
       </c>
       <c r="F12" s="1">
         <v>722.1468</v>
       </c>
       <c r="G12" s="1">
-        <v>6671.8493</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>91910.0619</v>
+        <v>81098.5934</v>
       </c>
       <c r="I12" s="1">
-        <v>114250.0679</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.1242</v>
+        <v>81098.5934</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103263.4476</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.5408</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>91910.0619</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0147</v>
+        <v>-0.0164</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>14.6185</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6609.1801</v>
       </c>
       <c r="F13" s="1">
         <v>684.0647</v>
       </c>
       <c r="G13" s="1">
-        <v>7355.914</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>106974.8511</v>
+        <v>96115.3235</v>
       </c>
       <c r="I13" s="1">
-        <v>124250.0679</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.8912</v>
+        <v>96115.3235</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113263.4476</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.1373</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>106974.8511</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0497</v>
+        <v>0.0551</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>15.2363</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7293.2448</v>
       </c>
       <c r="F14" s="1">
-        <v>-7355.914</v>
+        <v>-7293.2448</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>110545.8997</v>
       </c>
       <c r="I14" s="1">
-        <v>124250.0679</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.8912</v>
+        <v>110545.8997</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113263.4476</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.5299</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>111495.7958</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>111495.7958</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111495.7958</v>
+        <v>110545.8997</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0468</v>
+        <v>0.0418</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>22.3911</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>446.606</v>
       </c>
       <c r="G2" s="1">
-        <v>446.606</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1937</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>22.3911</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1937</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>23.2533</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>446.606</v>
       </c>
       <c r="F3" s="1">
         <v>424.4553</v>
       </c>
       <c r="G3" s="1">
-        <v>871.0613</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10331.203</v>
       </c>
       <c r="I3" s="1">
-        <v>19869.9863</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>22.8112</v>
+        <v>10331.203</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9869.9863</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>22.1</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9869.9863</v>
       </c>
-      <c r="O3" s="1">
-        <v>130.0137</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20280.0137</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0166</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>22.965</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>871.0613</v>
       </c>
       <c r="F4" s="1">
         <v>441.1066</v>
       </c>
       <c r="G4" s="1">
-        <v>1312.1679</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29977.6575</v>
+        <v>19900.1796</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>130.0137</v>
       </c>
       <c r="J4" s="1">
-        <v>22.8629</v>
+        <v>20030.1933</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>22.9605</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10130.0137</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29977.6575</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.01</v>
+        <v>-0.0148</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>19.9668</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1312.1679</v>
       </c>
       <c r="F5" s="1">
         <v>500.8314</v>
       </c>
       <c r="G5" s="1">
-        <v>1812.9993</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>36012.1494</v>
+        <v>26063.9854</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>22.0629</v>
+        <v>26063.9854</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>22.8629</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>36012.1494</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0992</v>
+        <v>-0.1321</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>18.2441</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>1812.9993</v>
       </c>
       <c r="F6" s="1">
         <v>548.1224</v>
       </c>
       <c r="G6" s="1">
-        <v>2361.1217</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>42853.1788</v>
+        <v>32905.0312</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>21.1764</v>
+        <v>32905.0312</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>22.0629</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>42853.1788</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0687</v>
+        <v>-0.0876</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>14.3227</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2361.1217</v>
       </c>
       <c r="F7" s="1">
         <v>698.1924</v>
       </c>
       <c r="G7" s="1">
-        <v>3059.3141</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>43590.3311</v>
+        <v>33642.2068</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>19.6122</v>
+        <v>33642.2068</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>21.1764</v>
+      </c>
+      <c r="M7" s="1">
         <v>2</v>
       </c>
-      <c r="L7" s="1">
-        <v>4250.0191</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-5749.9809</v>
+        <v>3263.3988</v>
       </c>
       <c r="O7" s="1">
-        <v>4250.0191</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>47840.3502</v>
+        <v>-6736.6012</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0948</v>
+        <v>-0.2159</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>15.7433</v>
       </c>
       <c r="E8" s="1">
+        <v>3059.3141</v>
+      </c>
+      <c r="F8" s="1">
+        <v>842.4789</v>
+      </c>
+      <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
-      <c r="F8" s="1">
-        <v>905.1482</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3964.4623</v>
-      </c>
       <c r="H8" s="1">
-        <v>62090.2188</v>
+        <v>47914.0597</v>
       </c>
       <c r="I8" s="1">
-        <v>74250.0191</v>
+        <v>3263.3988</v>
       </c>
       <c r="J8" s="1">
-        <v>18.7289</v>
+        <v>51177.4585</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>63263.3988</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>20.6789</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-14250.0191</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>62090.2188</v>
+        <v>-13263.3988</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0735</v>
+        <v>0.1727</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>16.1934</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3901.7931</v>
       </c>
       <c r="F9" s="1">
         <v>617.5355</v>
       </c>
       <c r="G9" s="1">
-        <v>4581.9978</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>73813.2355</v>
+        <v>62855.545</v>
       </c>
       <c r="I9" s="1">
-        <v>84250.0191</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>18.3872</v>
+        <v>62855.545</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>73263.3988</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.7769</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>73813.2355</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0239</v>
+        <v>0.0274</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>15.2218</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4519.3286</v>
       </c>
       <c r="F10" s="1">
         <v>656.9525</v>
       </c>
       <c r="G10" s="1">
-        <v>5238.9503</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>79332.9011</v>
+        <v>68435.7409</v>
       </c>
       <c r="I10" s="1">
-        <v>94250.0191</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.9902</v>
+        <v>68435.7409</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>83263.3988</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.4238</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>79332.9011</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0535</v>
+        <v>-0.0607</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>14.0702</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5176.2811</v>
       </c>
       <c r="F11" s="1">
         <v>710.722</v>
       </c>
       <c r="G11" s="1">
-        <v>5949.6723</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>83279.348</v>
+        <v>72453.95970000001</v>
       </c>
       <c r="I11" s="1">
-        <v>104250.0191</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.522</v>
+        <v>72453.95970000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>93263.3988</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.0175</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>83279.348</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0678</v>
+        <v>-0.07630000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>13.8476</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5887.0031</v>
       </c>
       <c r="F12" s="1">
         <v>722.1468</v>
       </c>
       <c r="G12" s="1">
-        <v>6671.8191</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>91909.64539999999</v>
+        <v>81098.17690000001</v>
       </c>
       <c r="I12" s="1">
-        <v>114250.0191</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.1243</v>
+        <v>81098.17690000001</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103263.3988</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.5409</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>91909.64539999999</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0147</v>
+        <v>-0.0164</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>14.6185</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6609.1499</v>
       </c>
       <c r="F13" s="1">
         <v>684.0647</v>
       </c>
       <c r="G13" s="1">
-        <v>7355.8838</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>106974.4114</v>
+        <v>96114.8838</v>
       </c>
       <c r="I13" s="1">
-        <v>124250.0191</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.8912</v>
+        <v>96114.8838</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113263.3988</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.1374</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>106974.4114</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0497</v>
+        <v>0.0551</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>15.2363</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7293.2146</v>
       </c>
       <c r="F14" s="1">
-        <v>-7355.8838</v>
+        <v>-7293.2146</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>110545.4414</v>
       </c>
       <c r="I14" s="1">
-        <v>124250.0191</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.8912</v>
+        <v>110545.4414</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113263.3988</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.53</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>111495.3375</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>111495.3375</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111495.3375</v>
+        <v>110545.4414</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0468</v>
+        <v>0.0418</v>
       </c>
     </row>
   </sheetData>
@@ -4478,7 +4451,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>15.1952</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>16.8564</v>
+        <v>15.5052</v>
       </c>
       <c r="D3" s="1">
-        <v>16.8914</v>
+        <v>15.5301</v>
       </c>
       <c r="E3" s="1">
-        <v>16.8911</v>
+        <v>15.5299</v>
       </c>
       <c r="F3" s="1">
-        <v>16.8912</v>
+        <v>15.5299</v>
       </c>
       <c r="G3" s="1">
-        <v>16.8912</v>
+        <v>15.53</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.3314</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.2892</v>
+        <v>-0.2717</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.2917</v>
+        <v>-0.2737</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.2917</v>
+        <v>-0.2736</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.2917</v>
+        <v>-0.2737</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.2917</v>
+        <v>-0.2737</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2971</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1864</v>
+        <v>0.3338</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1875</v>
+        <v>0.3346</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1874</v>
+        <v>0.3345</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1874</v>
+        <v>0.3345</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1874</v>
+        <v>0.3345</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-1.1839</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.661</v>
+        <v>-0.8749</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.6644</v>
+        <v>-0.8788</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.6644</v>
+        <v>-0.8787</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.6646</v>
+        <v>-0.8788</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.6648</v>
+        <v>-0.8789</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1271</v>
+        <v>-0.2992</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1289</v>
+        <v>-0.1427</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1288</v>
+        <v>-0.1427</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1288</v>
+        <v>-0.1427</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1288</v>
+        <v>-0.1427</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4249.8928</v>
+        <v>3263.2724</v>
       </c>
       <c r="D8" s="1">
-        <v>4249.9233</v>
+        <v>3263.303</v>
       </c>
       <c r="E8" s="1">
-        <v>4250.1168</v>
+        <v>3263.4965</v>
       </c>
       <c r="F8" s="1">
-        <v>4250.0679</v>
+        <v>3263.4476</v>
       </c>
       <c r="G8" s="1">
-        <v>4250.0191</v>
+        <v>3263.3988</v>
       </c>
     </row>
   </sheetData>
